--- a/TIE/SENSORES/PRACTICA3/P6.xlsx
+++ b/TIE/SENSORES/PRACTICA3/P6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andres\Documents\GIT\Todo_MUIT\TIE\SENSORES\PRÁCTICA 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GitHub\Todo_MUIT\TIE\SENSORES\PRACTICA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FC04E20-2DCE-42F4-B2CB-B5CB1B56FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E13A33-F542-487E-A912-1131D402FABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7CC6C732-0E74-41F9-B60B-F933812CB51C}"/>
+    <workbookView xWindow="12240" yWindow="2856" windowWidth="17280" windowHeight="8964" xr2:uid="{7CC6C732-0E74-41F9-B60B-F933812CB51C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,52 +425,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E263DAF1-E407-4D9B-A8DF-0B35957FB8E4}">
   <dimension ref="A2:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:P4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>7</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
         <v>12</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3">
         <v>22.2</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3">
         <v>27.3</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
       <c r="V2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -482,13 +482,13 @@
       <c r="G3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -500,29 +500,29 @@
       <c r="M3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3" t="s">
+      <c r="O3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="V3">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2">
         <f>B4/$V$3</f>
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="e">
+      <c r="D4" s="2" t="e">
         <f>C4/$A4</f>
         <v>#DIV/0!</v>
       </c>
@@ -535,12 +535,12 @@
         <f>F4/$A4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <f>H4/$V$3</f>
         <v>0</v>
       </c>
-      <c r="J4" s="3" t="e">
+      <c r="J4" s="2" t="e">
         <f>I4/$A4</f>
         <v>#DIV/0!</v>
       </c>
@@ -553,28 +553,28 @@
         <f>L4/$A4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3">
+      <c r="N4" s="2"/>
+      <c r="O4" s="2">
         <f>N4/$V$3</f>
         <v>0</v>
       </c>
-      <c r="P4" s="3" t="e">
+      <c r="P4" s="2" t="e">
         <f>O4/$A4</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>47000</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>0.4</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <f>B5/$V$3</f>
         <v>1.4285714285714287E-2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <f t="shared" ref="D5:D9" si="0">C5/$A5</f>
         <v>3.0395136778115507E-7</v>
       </c>
@@ -589,14 +589,14 @@
         <f t="shared" ref="G5:G9" si="2">F5/$A5</f>
         <v>6.3829787234042551E-7</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>1.24</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <f t="shared" ref="I5:I9" si="3">H5/$V$3</f>
         <v>4.4285714285714282E-2</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <f t="shared" ref="J5:J9" si="4">I5/$A5</f>
         <v>9.4224924012158052E-7</v>
       </c>
@@ -611,30 +611,30 @@
         <f t="shared" ref="M5:M9" si="6">L5/$A5</f>
         <v>1.2158054711246203E-6</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f>N5/$V$3</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <f t="shared" ref="P5:P9" si="7">O5/$A5</f>
         <v>1.5197568389057751E-6</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>100000</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>0.72</v>
       </c>
-      <c r="C6" s="3">
-        <f t="shared" ref="C6:C9" si="8">B6/$V$3</f>
+      <c r="C6" s="2">
+        <f>B6/$V$3</f>
         <v>2.5714285714285714E-2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <f>C6/$A6</f>
         <v>2.5714285714285716E-7</v>
       </c>
@@ -649,14 +649,14 @@
         <f>F6/$A6</f>
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>2.64</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <f t="shared" si="3"/>
         <v>9.4285714285714292E-2</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <f>I6/$A6</f>
         <v>9.4285714285714289E-7</v>
       </c>
@@ -671,30 +671,30 @@
         <f>L6/$A6</f>
         <v>1.2285714285714286E-6</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>4.24</v>
       </c>
-      <c r="O6" s="3">
-        <f t="shared" ref="O6:O9" si="9">N6/$V$3</f>
+      <c r="O6" s="2">
+        <f t="shared" ref="O6:O9" si="8">N6/$V$3</f>
         <v>0.15142857142857144</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <f>O6/$A6</f>
         <v>1.5142857142857145E-6</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>220000</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>1.74</v>
       </c>
-      <c r="C7" s="3">
-        <f t="shared" si="8"/>
+      <c r="C7" s="2">
+        <f t="shared" ref="C6:C9" si="9">B7/$V$3</f>
         <v>6.2142857142857146E-2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>2.824675324675325E-7</v>
       </c>
@@ -709,14 +709,14 @@
         <f t="shared" si="2"/>
         <v>5.844155844155845E-7</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>5.52</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <f t="shared" si="3"/>
         <v>0.19714285714285712</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <f t="shared" si="4"/>
         <v>8.9610389610389604E-7</v>
       </c>
@@ -731,30 +731,30 @@
         <f t="shared" si="6"/>
         <v>1.1818181818181818E-6</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>8.64</v>
       </c>
-      <c r="O7" s="3">
-        <f t="shared" si="9"/>
+      <c r="O7" s="2">
+        <f t="shared" si="8"/>
         <v>0.30857142857142861</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <f t="shared" si="7"/>
         <v>1.4025974025974028E-6</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>470000</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>3.6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <f>B8/$V$3</f>
         <v>0.12857142857142859</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>2.7355623100303953E-7</v>
       </c>
@@ -769,14 +769,14 @@
         <f t="shared" si="2"/>
         <v>5.7750759878419444E-7</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>9.6</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <f t="shared" si="3"/>
         <v>0.34285714285714286</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <f t="shared" si="4"/>
         <v>7.2948328267477205E-7</v>
       </c>
@@ -791,30 +791,30 @@
         <f t="shared" si="6"/>
         <v>7.9027355623100301E-7</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>10.6</v>
       </c>
-      <c r="O8" s="3">
-        <f t="shared" si="9"/>
+      <c r="O8" s="2">
+        <f t="shared" si="8"/>
         <v>0.37857142857142856</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <f t="shared" si="7"/>
         <v>8.0547112462006075E-7</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1000000</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>6.96</v>
       </c>
-      <c r="C9" s="3">
-        <f t="shared" si="8"/>
+      <c r="C9" s="2">
+        <f t="shared" si="9"/>
         <v>0.24857142857142858</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>2.485714285714286E-7</v>
       </c>
@@ -829,14 +829,14 @@
         <f t="shared" si="2"/>
         <v>3.4285714285714286E-7</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <f t="shared" si="3"/>
         <v>0.36428571428571427</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <f t="shared" si="4"/>
         <v>3.6428571428571428E-7</v>
       </c>
@@ -851,14 +851,14 @@
         <f t="shared" si="6"/>
         <v>3.7500000000000001E-7</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>10.8</v>
       </c>
-      <c r="O9" s="3">
-        <f t="shared" si="9"/>
+      <c r="O9" s="2">
+        <f t="shared" si="8"/>
         <v>0.38571428571428573</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <f t="shared" si="7"/>
         <v>3.8571428571428574E-7</v>
       </c>
